--- a/conf/case.xlsx
+++ b/conf/case.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\ApiTestFrameWork\conf\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36142D3B-387D-4C4A-A83B-B830B8081F1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>descrption</t>
   </si>
@@ -52,6 +46,9 @@
     <t>saves</t>
   </si>
   <si>
+    <t>is_skip</t>
+  </si>
+  <si>
     <t>dbtype</t>
   </si>
   <si>
@@ -67,35 +64,80 @@
     <t>访问百度</t>
   </si>
   <si>
+    <t>https://www.baidu.com/</t>
+  </si>
+  <si>
     <t>GET</t>
   </si>
   <si>
-    <t>mysql</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>insert into student(id,sname,age,sex) values(1,"楷楷",10,1)</t>
-  </si>
-  <si>
-    <t>select * from student;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>body =body</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.baidu.com/</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>b ody=body</t>
+  </si>
+  <si>
+    <t>flask01</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:5000/</t>
+  </si>
+  <si>
+    <t>Hello World!</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>flask02</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:5000/batch</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>{"batch":1}</t>
+  </si>
+  <si>
+    <t>$.msg=ok</t>
+  </si>
+  <si>
+    <t>msg=$.msg</t>
+  </si>
+  <si>
+    <t>flask03</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:5000/southern/h2/hot</t>
+  </si>
+  <si>
+    <t>$.hello=flask</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>flask04</t>
+  </si>
+  <si>
+    <t>{"Content-Type": "application/json;charset=UTF-8"}</t>
+  </si>
+  <si>
+    <t>{"batch":"${msg}"}</t>
+  </si>
+  <si>
+    <t>$.msg=k;$.Code=2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,13 +173,143 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -146,12 +318,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39994506668294322"/>
+        <fgColor theme="4" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -159,12 +517,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -178,7 +775,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -188,18 +785,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -457,19 +1097,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="38.5" style="1" customWidth="1"/>
@@ -479,14 +1119,14 @@
     <col min="6" max="6" width="10" style="1" customWidth="1"/>
     <col min="7" max="8" width="20.375" style="1" customWidth="1"/>
     <col min="9" max="9" width="20.625" style="1" customWidth="1"/>
-    <col min="10" max="11" width="16.75" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.25" style="1" customWidth="1"/>
-    <col min="13" max="13" width="26.25" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.875" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="10" max="12" width="16.75" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.25" style="1" customWidth="1"/>
+    <col min="14" max="14" width="26.25" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.875" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="39" customHeight="1" spans="1:15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -529,125 +1169,183 @@
       <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" ht="40.15" customHeight="1" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" ht="55.15" customHeight="1" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="55.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="3"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:14" ht="52.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5"/>
-      <c r="B4" s="3"/>
+      <c r="I3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" ht="52.15" customHeight="1" spans="1:11">
+      <c r="A4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="3"/>
+      <c r="G4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" ht="60" customHeight="1" spans="1:11">
+      <c r="A5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4"/>
-      <c r="B6" s="3"/>
-      <c r="D6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" ht="60" customHeight="1" spans="1:11">
+      <c r="A6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" ht="60" customHeight="1" spans="2:4">
       <c r="B7" s="3"/>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" ht="60" customHeight="1" spans="1:4">
       <c r="A8" s="4"/>
       <c r="B8" s="3"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" ht="60" customHeight="1" spans="1:4">
       <c r="A9" s="4"/>
       <c r="B9" s="3"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" ht="60" customHeight="1" spans="1:4">
       <c r="A10" s="4"/>
       <c r="B10" s="3"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" ht="60" customHeight="1" spans="1:4">
       <c r="A11" s="4"/>
       <c r="B11" s="3"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" ht="60" customHeight="1" spans="1:4">
       <c r="A12" s="4"/>
       <c r="B12" s="3"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" ht="60" customHeight="1" spans="1:4">
       <c r="A13" s="4"/>
       <c r="B13" s="3"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" ht="60" customHeight="1" spans="1:4">
       <c r="A14" s="4"/>
       <c r="B14" s="3"/>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" ht="60" customHeight="1" spans="1:4">
       <c r="A15" s="4"/>
       <c r="B15" s="3"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" ht="60" customHeight="1" spans="1:4">
       <c r="A16" s="4"/>
       <c r="B16" s="3"/>
       <c r="D16" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K6">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1 L2:L3 L4:L1048576">
       <formula1>"mysql,redis"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C1:C5 C7:C1048576">
       <formula1>"POST,GET,UPLOAD"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://www.baidu.com/"/>
+    <hyperlink ref="B3" r:id="rId2" display="http://127.0.0.1:5000/"/>
+    <hyperlink ref="B4" r:id="rId3" display="http://127.0.0.1:5000/batch" tooltip="http://127.0.0.1:5000/batch"/>
+    <hyperlink ref="B5" r:id="rId4" display="http://127.0.0.1:5000/southern/h2/hot" tooltip="http://127.0.0.1:5000/southern/h2/hot"/>
+    <hyperlink ref="B6" r:id="rId3" display="http://127.0.0.1:5000/batch" tooltip="http://127.0.0.1:5000/batch"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/conf/case.xlsx
+++ b/conf/case.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>descrption</t>
   </si>
@@ -82,6 +82,9 @@
     <t>Hello World!</t>
   </si>
   <si>
+    <t>body=\w+(?=\s)</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
@@ -124,7 +127,7 @@
     <t>{"batch":"${msg}"}</t>
   </si>
   <si>
-    <t>$.msg=k;$.Code=2</t>
+    <t>$.msg=k;$.Code=1</t>
   </si>
 </sst>
 </file>
@@ -1105,7 +1108,7 @@
   <sheetPr/>
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -1209,38 +1212,41 @@
       <c r="I3" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="J3" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="K3" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" ht="52.15" customHeight="1" spans="1:11">
       <c r="A4" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" s="4"/>
       <c r="G4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K4" s="4"/>
     </row>
     <row r="5" ht="60" customHeight="1" spans="1:11">
       <c r="A5" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>17</v>
@@ -1249,31 +1255,31 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" ht="60" customHeight="1" spans="1:11">
       <c r="A6" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K6" s="4"/>
     </row>

--- a/conf/case.xlsx
+++ b/conf/case.xlsx
@@ -127,7 +127,7 @@
     <t>{"batch":"${msg}"}</t>
   </si>
   <si>
-    <t>$.msg=k;$.Code=1</t>
+    <t>$.msg=k;$.Code=2</t>
   </si>
 </sst>
 </file>
@@ -1109,7 +1109,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
